--- a/resources/experiment 1/predictions/single/LinearRegression/incidence/Retinopatía de fondo (INC).xlsx
+++ b/resources/experiment 1/predictions/single/LinearRegression/incidence/Retinopatía de fondo (INC).xlsx
@@ -463,13 +463,13 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>-2.044071033346412</v>
+        <v>-2.04407103334642</v>
       </c>
       <c r="B3" t="n">
-        <v>-10.22498167231442</v>
+        <v>-10.22498167231445</v>
       </c>
       <c r="C3" t="n">
-        <v>5.648156839085054</v>
+        <v>5.648156839085061</v>
       </c>
     </row>
     <row r="4">
@@ -477,7 +477,7 @@
         <v>12.11796339314985</v>
       </c>
       <c r="B4" t="n">
-        <v>4.187771374720015</v>
+        <v>4.187771374719993</v>
       </c>
       <c r="C4" t="n">
         <v>19.25955655340444</v>
@@ -485,21 +485,21 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>-1.097537132767926</v>
+        <v>-1.09753713276794</v>
       </c>
       <c r="B5" t="n">
-        <v>-9.15028274350508</v>
+        <v>-9.150282743505095</v>
       </c>
       <c r="C5" t="n">
-        <v>6.561106041256608</v>
+        <v>6.561106041256615</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>27.58397867896323</v>
+        <v>27.58397867896322</v>
       </c>
       <c r="B6" t="n">
-        <v>19.86849630918977</v>
+        <v>19.86849630918976</v>
       </c>
       <c r="C6" t="n">
         <v>34.36148049327942</v>
@@ -510,7 +510,7 @@
         <v>54.69126698442584</v>
       </c>
       <c r="B7" t="n">
-        <v>46.816458294299</v>
+        <v>46.81645829429898</v>
       </c>
       <c r="C7" t="n">
         <v>60.95389837177592</v>
@@ -529,10 +529,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>27.03349840097358</v>
+        <v>27.03349840097357</v>
       </c>
       <c r="B9" t="n">
-        <v>19.10176250759929</v>
+        <v>19.10176250759928</v>
       </c>
       <c r="C9" t="n">
         <v>33.98573950705915</v>
@@ -540,7 +540,7 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>110.8761247242084</v>
+        <v>110.8761247242085</v>
       </c>
       <c r="B10" t="n">
         <v>103.0911644593219</v>
@@ -565,7 +565,7 @@
         <v>42.49951368678695</v>
       </c>
       <c r="B12" t="n">
-        <v>34.78248744206904</v>
+        <v>34.78248744206905</v>
       </c>
       <c r="C12" t="n">
         <v>49.08766344693413</v>
@@ -576,7 +576,7 @@
         <v>98.21110447628031</v>
       </c>
       <c r="B13" t="n">
-        <v>90.5198441426873</v>
+        <v>90.51984414268733</v>
       </c>
       <c r="C13" t="n">
         <v>103.561189392319</v>
@@ -584,10 +584,10 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>83.73022975489562</v>
+        <v>83.73022975489563</v>
       </c>
       <c r="B14" t="n">
-        <v>76.0285103056198</v>
+        <v>76.02851030561982</v>
       </c>
       <c r="C14" t="n">
         <v>89.33184784718277</v>
@@ -595,18 +595,18 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>-0.1510032321894386</v>
+        <v>-0.1510032321894528</v>
       </c>
       <c r="B15" t="n">
-        <v>-8.075583814695733</v>
+        <v>-8.075583814695747</v>
       </c>
       <c r="C15" t="n">
-        <v>7.474055243428161</v>
+        <v>7.474055243428168</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>27.50676535126282</v>
+        <v>27.50676535126281</v>
       </c>
       <c r="B16" t="n">
         <v>19.63911197200396</v>
@@ -631,7 +631,7 @@
         <v>12.19517672085026</v>
       </c>
       <c r="B18" t="n">
-        <v>4.417155711905814</v>
+        <v>4.417155711905799</v>
       </c>
       <c r="C18" t="n">
         <v>19.17882293853894</v>
@@ -642,7 +642,7 @@
         <v>70.59194255667825</v>
       </c>
       <c r="B19" t="n">
-        <v>62.91984052458051</v>
+        <v>62.91984052458052</v>
       </c>
       <c r="C19" t="n">
         <v>76.55266372016943</v>
@@ -650,7 +650,7 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>28.53051257954172</v>
+        <v>28.53051257954171</v>
       </c>
       <c r="B20" t="n">
         <v>20.94319523799911</v>
@@ -661,7 +661,7 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>13.93381786660641</v>
+        <v>13.9338178666064</v>
       </c>
       <c r="B21" t="n">
         <v>6.107784895152896</v>
@@ -683,21 +683,21 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>0.4766903735006238</v>
+        <v>0.4766903735006096</v>
       </c>
       <c r="B23" t="n">
-        <v>-7.079465675919458</v>
+        <v>-7.079465675919465</v>
       </c>
       <c r="C23" t="n">
-        <v>7.769062614782918</v>
+        <v>7.769062614782925</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>27.46815868741262</v>
+        <v>27.46815868741261</v>
       </c>
       <c r="B24" t="n">
-        <v>19.52441980341106</v>
+        <v>19.52441980341105</v>
       </c>
       <c r="C24" t="n">
         <v>34.48258091557769</v>
@@ -708,7 +708,7 @@
         <v>26.59883811453454</v>
       </c>
       <c r="B25" t="n">
-        <v>18.67910521178752</v>
+        <v>18.67910521178751</v>
       </c>
       <c r="C25" t="n">
         <v>33.48889809854062</v>
@@ -716,7 +716,7 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>14.08824452200723</v>
+        <v>14.08824452200722</v>
       </c>
       <c r="B26" t="n">
         <v>6.566553569524501</v>
@@ -727,10 +727,10 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>99.2348517045592</v>
+        <v>99.23485170455922</v>
       </c>
       <c r="B27" t="n">
-        <v>91.82392740868247</v>
+        <v>91.82392740868248</v>
       </c>
       <c r="C27" t="n">
         <v>104.393404979625</v>
@@ -738,10 +738,10 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>55.08732060701468</v>
+        <v>55.08732060701467</v>
       </c>
       <c r="B28" t="n">
-        <v>47.12442342151786</v>
+        <v>47.12442342151785</v>
       </c>
       <c r="C28" t="n">
         <v>61.49110658772721</v>
@@ -749,7 +749,7 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>0.9499573237898602</v>
+        <v>0.949957323789846</v>
       </c>
       <c r="B29" t="n">
         <v>-6.542116211514788</v>
@@ -760,7 +760,7 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>42.14206672804833</v>
+        <v>42.14206672804832</v>
       </c>
       <c r="B30" t="n">
         <v>34.58921448344307</v>
@@ -804,10 +804,10 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>57.09620839972226</v>
+        <v>57.09620839972225</v>
       </c>
       <c r="B34" t="n">
-        <v>49.61789778491525</v>
+        <v>49.61789778491526</v>
       </c>
       <c r="C34" t="n">
         <v>63.19590456977205</v>
@@ -815,7 +815,7 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>27.98003230155206</v>
+        <v>27.98003230155205</v>
       </c>
       <c r="B35" t="n">
         <v>20.17646143640863</v>
@@ -837,13 +837,13 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>14.48429814459606</v>
+        <v>14.48429814459605</v>
       </c>
       <c r="B37" t="n">
         <v>6.874518696743372</v>
       </c>
       <c r="C37" t="n">
-        <v>21.54192955883333</v>
+        <v>21.54192955883332</v>
       </c>
     </row>
     <row r="38">
@@ -859,10 +859,10 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>43.0113873009264</v>
+        <v>43.01138730092639</v>
       </c>
       <c r="B39" t="n">
-        <v>35.43452907506661</v>
+        <v>35.43452907506662</v>
       </c>
       <c r="C39" t="n">
         <v>49.50377124058716</v>
@@ -870,10 +870,10 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>13.06449729372834</v>
+        <v>13.06449729372833</v>
       </c>
       <c r="B40" t="n">
-        <v>5.262470303529355</v>
+        <v>5.262470303529348</v>
       </c>
       <c r="C40" t="n">
         <v>20.172505755576</v>
@@ -884,7 +884,7 @@
         <v>54.29521336183701</v>
       </c>
       <c r="B41" t="n">
-        <v>46.50849316708013</v>
+        <v>46.50849316708011</v>
       </c>
       <c r="C41" t="n">
         <v>60.41669015582463</v>
@@ -917,7 +917,7 @@
         <v>68.22560780523204</v>
       </c>
       <c r="B44" t="n">
-        <v>60.23309320255716</v>
+        <v>60.23309320255714</v>
       </c>
       <c r="C44" t="n">
         <v>74.27029071474055</v>
@@ -928,7 +928,7 @@
         <v>71.21963616236832</v>
       </c>
       <c r="B45" t="n">
-        <v>63.91595866335679</v>
+        <v>63.9159586633568</v>
       </c>
       <c r="C45" t="n">
         <v>76.84767109152419</v>
@@ -936,7 +936,7 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>82.89951584586775</v>
+        <v>82.89951584586777</v>
       </c>
       <c r="B46" t="n">
         <v>75.29788788258917</v>
@@ -969,10 +969,10 @@
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>12.47541035188848</v>
+        <v>12.47541035188847</v>
       </c>
       <c r="B49" t="n">
-        <v>4.381044333345983</v>
+        <v>4.381044333345969</v>
       </c>
       <c r="C49" t="n">
         <v>19.83713157678849</v>
@@ -980,21 +980,21 @@
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>14.40708481689565</v>
+        <v>14.40708481689564</v>
       </c>
       <c r="B50" t="n">
         <v>6.645134359557566</v>
       </c>
       <c r="C50" t="n">
-        <v>21.62266317369884</v>
+        <v>21.62266317369883</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>-1.966857705645999</v>
+        <v>-1.966857705646007</v>
       </c>
       <c r="B51" t="n">
-        <v>-9.995597335128622</v>
+        <v>-9.995597335128643</v>
       </c>
       <c r="C51" t="n">
         <v>5.567423224219546</v>
@@ -1013,10 +1013,10 @@
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>43.12720729247702</v>
+        <v>43.12720729247701</v>
       </c>
       <c r="B53" t="n">
-        <v>35.77860558084532</v>
+        <v>35.77860558084533</v>
       </c>
       <c r="C53" t="n">
         <v>49.38267081828889</v>
@@ -1024,10 +1024,10 @@
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>-0.07378990448903266</v>
+        <v>-0.07378990448904688</v>
       </c>
       <c r="B54" t="n">
-        <v>-7.846199477509934</v>
+        <v>-7.846199477509941</v>
       </c>
       <c r="C54" t="n">
         <v>7.393321628562653</v>
@@ -1038,7 +1038,7 @@
         <v>13.97242453045661</v>
       </c>
       <c r="B55" t="n">
-        <v>6.222477063745799</v>
+        <v>6.222477063745792</v>
       </c>
       <c r="C55" t="n">
         <v>21.12582176518031</v>
@@ -1046,10 +1046,10 @@
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>83.17974947690597</v>
+        <v>83.17974947690598</v>
       </c>
       <c r="B56" t="n">
-        <v>75.26177650402933</v>
+        <v>75.26177650402934</v>
       </c>
       <c r="C56" t="n">
         <v>88.95610686096251</v>
@@ -1057,7 +1057,7 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>96.79130362541258</v>
+        <v>96.7913036254126</v>
       </c>
       <c r="B57" t="n">
         <v>88.90779574947331</v>
@@ -1068,7 +1068,7 @@
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>14.52290480844627</v>
+        <v>14.52290480844626</v>
       </c>
       <c r="B58" t="n">
         <v>6.989210865336275</v>
@@ -1090,7 +1090,7 @@
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>0.3608703819500079</v>
+        <v>0.3608703819499937</v>
       </c>
       <c r="B60" t="n">
         <v>-7.423542181698167</v>
@@ -1101,10 +1101,10 @@
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>84.20349670518486</v>
+        <v>84.20349670518488</v>
       </c>
       <c r="B61" t="n">
-        <v>76.56585977002447</v>
+        <v>76.56585977002449</v>
       </c>
       <c r="C61" t="n">
         <v>89.78832244826854</v>
@@ -1126,7 +1126,7 @@
         <v>85.15003060576335</v>
       </c>
       <c r="B63" t="n">
-        <v>77.64055869883381</v>
+        <v>77.64055869883384</v>
       </c>
       <c r="C63" t="n">
         <v>90.70127165044011</v>
@@ -1134,10 +1134,10 @@
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>0.3994770458002108</v>
+        <v>0.3994770458001966</v>
       </c>
       <c r="B64" t="n">
-        <v>-7.308850013105264</v>
+        <v>-7.308850013105271</v>
       </c>
       <c r="C64" t="n">
         <v>7.849796229648433</v>
@@ -1181,7 +1181,7 @@
         <v>13.42194425246696</v>
       </c>
       <c r="B68" t="n">
-        <v>5.455743262155323</v>
+        <v>5.455743262155316</v>
       </c>
       <c r="C68" t="n">
         <v>20.75008077896004</v>
@@ -1203,7 +1203,7 @@
         <v>13.10310395757854</v>
       </c>
       <c r="B70" t="n">
-        <v>5.377162472122258</v>
+        <v>5.377162472122251</v>
       </c>
       <c r="C70" t="n">
         <v>20.13213894814324</v>
@@ -1214,7 +1214,7 @@
         <v>40.17178559919095</v>
       </c>
       <c r="B71" t="n">
-        <v>32.21043228863859</v>
+        <v>32.21043228863857</v>
       </c>
       <c r="C71" t="n">
         <v>46.7649236340725</v>
@@ -1225,7 +1225,7 @@
         <v>41.07971283591922</v>
       </c>
       <c r="B72" t="n">
-        <v>33.17043904885503</v>
+        <v>33.17043904885502</v>
       </c>
       <c r="C72" t="n">
         <v>47.7182396436768</v>
